--- a/bsq/docs/部绍擎Table设计需求列表说明书.xlsx
+++ b/bsq/docs/部绍擎Table设计需求列表说明书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFAE6F4-FBCC-4374-9469-A4AEB70E3141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0886E751-FFCF-4DDA-95E4-84248DB42D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>需求点</t>
   </si>
@@ -368,28 +368,36 @@
     <t>3-项目级关注</t>
   </si>
   <si>
-    <t>每一列支持设置宽度、高度</t>
+    <t>3-接口级影响</t>
+  </si>
+  <si>
+    <t>3-美化特性</t>
+  </si>
+  <si>
+    <t>4-弱影响</t>
+  </si>
+  <si>
+    <t>支持自定义toorbar；toorbar支持可配置显示、隐藏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3-接口级影响</t>
-  </si>
-  <si>
-    <t>3-美化特性</t>
-  </si>
-  <si>
-    <t>4-弱影响</t>
-  </si>
-  <si>
-    <t>支持分页功能</t>
+    <t>支持分页功能（显示total，输入跳转等）；分页支持可配置显示、隐藏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支持自定义toorbar</t>
+    <t>支持表头排序（本地排序、远程排序、单个关键字排序、多个关键字一起排序）；表头支持可配置显示、隐藏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支持排序</t>
+    <t>每一列支持设置宽度、高度，渲染正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持列表数据正常渲染；无数据展示空状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>table的body在无数据显示空状态，数据多时出现滚动条，数据显示正常</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -800,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -832,41 +843,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -875,44 +886,64 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -920,7 +951,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -975,19 +1006,26 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1-架构级影响,2-特性级影响,3-接口级影响,4-弱影响"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1-核心特性,2-重要特性,3-美化特性,4-扩展特性"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"1-不确定级,2-极限,3-复杂,4-一般"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"1-架构师关注,2-T6专家关注,3-项目级关注,4-正常跟进"</formula1>
     </dataValidation>
   </dataValidations>
